--- a/static/Catalog ca-bank.xlsx
+++ b/static/Catalog ca-bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\KNH\xwick-ecosystem\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F53C43F-9A2E-4D67-A4A3-406E828B3B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAC6B6C-4B0F-4868-AA2E-28D397543610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4732,7 +4732,7 @@
   <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>589</v>
@@ -11684,7 +11684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A317" sqref="A317"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
